--- a/data_year/zb/人民生活/城镇居民按收入五等份分组的收入情况.xlsx
+++ b/data_year/zb/人民生活/城镇居民按收入五等份分组的收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38572</v>
+        <v>38572.43</v>
       </c>
       <c r="C4" t="n">
-        <v>21446</v>
+        <v>21446.16</v>
       </c>
       <c r="D4" t="n">
-        <v>29105</v>
+        <v>29105.18</v>
       </c>
       <c r="E4" t="n">
-        <v>12231</v>
+        <v>12230.85</v>
       </c>
       <c r="F4" t="n">
-        <v>65082</v>
+        <v>65082.2</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41806</v>
+        <v>41805.58</v>
       </c>
       <c r="C5" t="n">
-        <v>23055</v>
+        <v>23054.87</v>
       </c>
       <c r="D5" t="n">
-        <v>31522</v>
+        <v>31521.77</v>
       </c>
       <c r="E5" t="n">
-        <v>13004</v>
+        <v>13004.13</v>
       </c>
       <c r="F5" t="n">
-        <v>70348</v>
+        <v>70347.78</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45163</v>
+        <v>45163.3978918216</v>
       </c>
       <c r="C6" t="n">
-        <v>24550</v>
+        <v>24550.136696615</v>
       </c>
       <c r="D6" t="n">
-        <v>33781</v>
+        <v>33781.3161775188</v>
       </c>
       <c r="E6" t="n">
-        <v>13723</v>
+        <v>13723.0718494509</v>
       </c>
       <c r="F6" t="n">
-        <v>77097</v>
+        <v>77097.1802596038</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49174</v>
+        <v>49173.5</v>
       </c>
       <c r="C7" t="n">
-        <v>24857</v>
+        <v>24856.51</v>
       </c>
       <c r="D7" t="n">
-        <v>35196</v>
+        <v>35196.11</v>
       </c>
       <c r="E7" t="n">
-        <v>14387</v>
+        <v>14386.87</v>
       </c>
       <c r="F7" t="n">
-        <v>84907</v>
+        <v>84907.13</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52907</v>
+        <v>52907.31</v>
       </c>
       <c r="C8" t="n">
-        <v>26784</v>
+        <v>26783.67</v>
       </c>
       <c r="D8" t="n">
-        <v>37876</v>
+        <v>37875.8</v>
       </c>
       <c r="E8" t="n">
-        <v>15549</v>
+        <v>15549.37</v>
       </c>
       <c r="F8" t="n">
-        <v>91683</v>
+        <v>91682.60000000001</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,63 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54910</v>
+        <v>54910.09</v>
       </c>
       <c r="C9" t="n">
-        <v>27501</v>
+        <v>27501.14</v>
       </c>
       <c r="D9" t="n">
-        <v>39278</v>
+        <v>39278.18</v>
       </c>
       <c r="E9" t="n">
-        <v>15598</v>
+        <v>15597.71</v>
       </c>
       <c r="F9" t="n">
-        <v>96062</v>
+        <v>96061.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59005.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30132.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42498</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16745.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>102595.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61724.13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31179.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>44282.85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16970.68</v>
+      </c>
+      <c r="F11" t="n">
+        <v>107224.07</v>
       </c>
     </row>
   </sheetData>
